--- a/Consumer/Deckers Outdoor Corporation.xlsx
+++ b/Consumer/Deckers Outdoor Corporation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B5807-79D3-C341-BEEF-6A251D3F5B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89F8F0F-8463-274B-821C-E2DAFCA6111B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,12 +1726,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1749,7 +1751,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1762,6 +1764,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1887,13 +1891,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>659.27</v>
+    <v>699.66</v>
     <v>361.62</v>
-    <v>0.93140000000000001</v>
-    <v>19.440000000000001</v>
-    <v>3.0515E-2</v>
-    <v>-2.31</v>
-    <v>-3.5179999999999999E-3</v>
+    <v>0.96579999999999999</v>
+    <v>0.6</v>
+    <v>8.6400000000000008E-4</v>
+    <v>-0.38</v>
+    <v>-5.465E-4</v>
     <v>USD</v>
     <v>Deckers Outdoor Corporation designs, markets, and distributes footwear, apparel and accessories developed for both everyday casual lifestyle uses and high-performance activities. Its segments include UGG brand, HOKA brand, Teva brand, Sanuk brand, Other brands and Direct-to-Consumer (DTC). The UGG brand segment provides premium footwear, apparel and accessories with expanded product offerings. The HOKA brand segment’s products include running, trail, hiking, fitness and lifestyle. Teva brand segment is engaged in a multi-category outdoor lifestyle brand offering a range of performance, casual and trail lifestyle products. Sanuk brand segment is engaged in lifestyle brand with a presence in the relaxed casual shoe and sandal categories. Other brands segment consist of the Koolaburra brand, which is a casual footwear fashion line that uses plush materials. The segment primarily sells in the United States and Canada. DTC segment is comprised of its e-commerce business and retail business.</v>
     <v>4200</v>
@@ -1901,25 +1905,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>250 Coromar Drive, GOLETA, CA, 93117 US</v>
-    <v>659.27</v>
+    <v>699.66</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45257.982227985936</v>
+    <v>45268.993123541404</v>
     <v>0</v>
-    <v>635</v>
-    <v>16892573463</v>
+    <v>682.29</v>
+    <v>17883469267</v>
     <v>DECKERS OUTDOOR CORPORATION</v>
     <v>DECKERS OUTDOOR CORPORATION</v>
-    <v>635</v>
-    <v>28.3306</v>
-    <v>637.07000000000005</v>
-    <v>656.51</v>
-    <v>654.30999999999995</v>
+    <v>687.65</v>
+    <v>29.961500000000001</v>
+    <v>694.42</v>
+    <v>695.02</v>
+    <v>695</v>
     <v>25730870</v>
     <v>DECK</v>
     <v>DECKERS OUTDOOR CORPORATION (XNYS:DECK)</v>
-    <v>468697</v>
-    <v>441582</v>
+    <v>279568</v>
+    <v>342882</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -14086,7 +14090,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>16892573463</v>
+        <v>17883469267</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>201</v>
@@ -14114,7 +14118,7 @@
       </c>
       <c r="I3" s="31">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>11158533478.54133</v>
+        <v>10951002531.617985</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>205</v>
@@ -14166,14 +14170,14 @@
       </c>
       <c r="I4" s="41">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>9507654105.4257393</v>
+        <v>9324961261.8125782</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.0515E-2</v>
+        <v>8.6400000000000008E-4</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>213</v>
@@ -14218,14 +14222,14 @@
       </c>
       <c r="I5" s="41">
         <f>I4+G5-G6</f>
-        <v>10293942105.425739</v>
+        <v>10111249261.812578</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="45" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>656.51</v>
+        <v>695.02</v>
       </c>
       <c r="L5" s="46" t="s">
         <v>220</v>
@@ -14245,7 +14249,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <f>O20/F10</f>
-        <v>4.1648356664201183</v>
+        <v>4.4091393656311633</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>222</v>
@@ -14273,14 +14277,14 @@
       </c>
       <c r="I6" s="42">
         <f>N25</f>
-        <v>9.4444609499105658E-2</v>
+        <v>9.5760644768612818E-2</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="50">
         <f>I5/G4</f>
-        <v>448.00627245301143</v>
+        <v>440.05523299381019</v>
       </c>
       <c r="L6" s="51" t="s">
         <v>226</v>
@@ -14300,14 +14304,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <f>O20/F12</f>
-        <v>27.738215866995073</v>
+        <v>29.365302573070608</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="54">
         <f>F15/A3</f>
-        <v>2.8414853488803796E-2</v>
+        <v>2.6840429719402051E-2</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>229</v>
@@ -14334,7 +14338,7 @@
       </c>
       <c r="K7" s="60">
         <f>K6/K5-1</f>
-        <v>-0.31759413801311265</v>
+        <v>-0.36684522316795176</v>
       </c>
       <c r="L7" s="61" t="s">
         <v>232</v>
@@ -14661,7 +14665,7 @@
       </c>
       <c r="O14" s="80">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -14813,7 +14817,7 @@
       </c>
       <c r="O17" s="90">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6922800000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
@@ -14896,7 +14900,7 @@
       </c>
       <c r="O20" s="96">
         <f>A3</f>
-        <v>16892573463</v>
+        <v>17883469267</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -14926,7 +14930,7 @@
       </c>
       <c r="O21" s="96">
         <f>O19+O20</f>
-        <v>17153174463</v>
+        <v>18144070267</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
@@ -14954,7 +14958,7 @@
       </c>
       <c r="O22" s="98">
         <f>(O19/O21)</f>
-        <v>1.519258144095284E-2</v>
+        <v>1.4362874270497886E-2</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -14979,7 +14983,7 @@
       </c>
       <c r="O23" s="99">
         <f>O20/O21</f>
-        <v>0.98480741855904719</v>
+        <v>0.98563712572950213</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -15023,7 +15027,7 @@
       <c r="M25" s="63"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.4444609499105658E-2</v>
+        <v>9.5760644768612818E-2</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="35"/>
